--- a/metrics/transfer_time/cleaned_data/Kafka_03.vda.xlsx
+++ b/metrics/transfer_time/cleaned_data/Kafka_03.vda.xlsx
@@ -5037,21 +5037,33 @@
       <c r="A144" s="2" t="n">
         <v>45186.76597222222</v>
       </c>
-      <c r="B144" t="inlineStr"/>
+      <c r="B144" t="n">
+        <v>0</v>
+      </c>
       <c r="C144" t="n">
         <v>0</v>
       </c>
-      <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
       <c r="G144" t="n">
         <v>0</v>
       </c>
-      <c r="H144" t="inlineStr"/>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
